--- a/va_facility_data_2025-02-20/Helena VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Helena%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Helena VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Helena%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rb55240721cb443939efdd0bd963bf83a"/>
-    <x:sheet name="Outpatient Score" sheetId="2" r:id="Rdd23f40f1ad74b0dbdaf4086e4f114d4"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Redd332a051a645cd9d9da9d9f1c71e07"/>
+    <x:sheet name="Outpatient Score" sheetId="2" r:id="R2fe984145c234ee7822c7baec7834f77"/>
   </x:sheets>
 </x:workbook>
 </file>
